--- a/biology/Zoologie/Crevette_blanche_des_Indes/Crevette_blanche_des_Indes.xlsx
+++ b/biology/Zoologie/Crevette_blanche_des_Indes/Crevette_blanche_des_Indes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fenneropenaeus indicus
 La crevette blanche des Indes, ou crevette royale blanche, est une espèce de crevette marine de la famille des Penaeidae originaire de l'océan Indien et de l'est de l'océan Pacifique. C'est une espèce de grande importance économique tant pour la pêche que pour l'élevage.
@@ -514,7 +526,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Penaeus indicus longirostris De Man.
 Sur les autres projets Wikimedia :
